--- a/www/mesures/3.0.0/StructureDefinition-mes-moment-of-measurement.xlsx
+++ b/www/mesures/3.0.0/StructureDefinition-mes-moment-of-measurement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="178">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:26:47+01:00</t>
+    <t>2023-03-22T16:32:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -480,9 +480,6 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1327,7 +1324,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>93</v>
@@ -1533,7 +1530,7 @@
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>106</v>
@@ -1638,7 +1635,7 @@
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>106</v>
@@ -1846,13 +1843,13 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1953,7 +1950,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>106</v>
@@ -2161,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2268,7 +2265,7 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>106</v>
@@ -2373,7 +2370,7 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>106</v>
@@ -2418,11 +2415,9 @@
       <c r="M15" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -2471,7 +2466,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -2480,21 +2475,21 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2520,16 +2515,14 @@
         <v>81</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -2578,7 +2571,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2587,21 +2580,21 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2624,19 +2617,19 @@
         <v>119</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -2685,7 +2678,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -2694,21 +2687,21 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2734,16 +2727,16 @@
         <v>81</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -2792,7 +2785,7 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -2801,13 +2794,13 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
